--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value60.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value60.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6654532897456381</v>
+        <v>1.855756402015686</v>
       </c>
       <c r="B1">
-        <v>1.046396507936124</v>
+        <v>3.144791126251221</v>
       </c>
       <c r="C1">
-        <v>2.145240917063957</v>
+        <v>3.184075593948364</v>
       </c>
       <c r="D1">
-        <v>2.675577178469819</v>
+        <v>3.625637769699097</v>
       </c>
       <c r="E1">
-        <v>2.509396245633124</v>
+        <v>3.137698173522949</v>
       </c>
     </row>
   </sheetData>
